--- a/Nyers adatok/Egyeb_feltetelek.xlsx
+++ b/Nyers adatok/Egyeb_feltetelek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qInsane\Desktop\SQL-Letrehozas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Everything\Suli\Adatb_2\Push\Adatbre_2_allaskereso\Nyers adatok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C87A95-7022-4438-9728-CD96C02C2673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC26EB9-5C9A-4730-B5E3-77FC5DB2F479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B61BAFA4-E99E-47C7-9D5E-B424DF4B390A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B61BAFA4-E99E-47C7-9D5E-B424DF4B390A}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -47,12 +47,6 @@
   </si>
   <si>
     <t>egyeb_feltetelek</t>
-  </si>
-  <si>
-    <t>Igen</t>
-  </si>
-  <si>
-    <t>Nem</t>
   </si>
   <si>
     <t>Aktív hallgatói jogviszony</t>
@@ -419,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2238F2B5-2FE5-409C-A11B-C9D2FAED54E8}">
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,64 +442,69 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(0,1)</f>
+        <v>0</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B3">
+        <f t="shared" ref="B3:B66" ca="1" si="0">RANDBETWEEN(0,1)</f>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -515,36 +514,39 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>4</v>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -554,50 +556,54 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>4</v>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -607,8 +613,9 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -618,50 +625,54 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C16">
         <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>4</v>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -671,36 +682,39 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>4</v>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -710,36 +724,39 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>4</v>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>4</v>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>4</v>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -749,36 +766,39 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C25">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>4</v>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>3</v>
@@ -788,8 +808,9 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -799,120 +820,129 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>4</v>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C37">
         <v>3</v>
@@ -922,8 +952,9 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>4</v>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -933,50 +964,54 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>4</v>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="D40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C41">
         <v>4</v>
       </c>
       <c r="D41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>4</v>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -986,8 +1021,9 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -997,92 +1033,99 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>4</v>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C44">
         <v>2</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C45">
         <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>3</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>4</v>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C47">
         <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>4</v>
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>4</v>
       </c>
       <c r="D48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1092,22 +1135,24 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>4</v>
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C51">
         <v>5</v>
       </c>
       <c r="D51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>4</v>
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -1117,36 +1162,39 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>5</v>
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>5</v>
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>5</v>
       </c>
       <c r="D54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1156,8 +1204,9 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>5</v>
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1167,36 +1216,39 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>5</v>
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>4</v>
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>3</v>
@@ -1206,8 +1258,9 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
-        <v>4</v>
+      <c r="B60">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -1217,50 +1270,54 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
-        <v>4</v>
+      <c r="B61">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
-        <v>4</v>
+      <c r="B62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
-        <v>4</v>
+      <c r="B63">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C63">
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
-        <v>5</v>
+      <c r="B64">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -1270,50 +1327,54 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
-        <v>4</v>
+      <c r="B65">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
-        <v>5</v>
+      <c r="B66">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>4</v>
       </c>
       <c r="D66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>4</v>
+      <c r="B67">
+        <f t="shared" ref="B67:B96" ca="1" si="1">RANDBETWEEN(0,1)</f>
+        <v>0</v>
       </c>
       <c r="C67">
         <v>2</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
-        <v>4</v>
+      <c r="B68">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -1323,50 +1384,54 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
+      <c r="B69">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C69">
         <v>3</v>
       </c>
       <c r="D69" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
-        <v>4</v>
+      <c r="B70">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
+      <c r="B71">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>3</v>
       </c>
       <c r="D71" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>5</v>
+      <c r="B72">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1376,50 +1441,54 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>5</v>
+      <c r="B73">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>4</v>
+      <c r="B74">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
-        <v>4</v>
+      <c r="B75">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C75">
         <v>0</v>
       </c>
       <c r="D75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>5</v>
+      <c r="B76">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1429,8 +1498,9 @@
       <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
-        <v>4</v>
+      <c r="B77">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C77">
         <v>2</v>
@@ -1440,36 +1510,39 @@
       <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
-        <v>5</v>
+      <c r="B78">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C78">
         <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
-        <v>4</v>
+      <c r="B79">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C79">
         <v>2</v>
       </c>
       <c r="D79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>5</v>
+      <c r="B80">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>5</v>
@@ -1479,22 +1552,24 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
-        <v>4</v>
+      <c r="B81">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
-        <v>5</v>
+      <c r="B82">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -1504,64 +1579,69 @@
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
-        <v>5</v>
+      <c r="B83">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C83">
         <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>4</v>
+      <c r="B84">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C84">
         <v>3</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>4</v>
+      <c r="B85">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C85">
         <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
-        <v>4</v>
+      <c r="B86">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
-        <v>5</v>
+      <c r="B87">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1571,22 +1651,24 @@
       <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
-        <v>4</v>
+      <c r="B88">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
-        <v>4</v>
+      <c r="B89">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -1596,22 +1678,24 @@
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>4</v>
+      <c r="B90">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>4</v>
+      <c r="B91">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1621,50 +1705,54 @@
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>5</v>
+      <c r="B92">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C92">
         <v>3</v>
       </c>
       <c r="D92" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>5</v>
+      <c r="B93">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
       </c>
       <c r="C93">
         <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
-        <v>5</v>
+      <c r="B94">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C94">
         <v>5</v>
       </c>
       <c r="D94" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
-        <v>4</v>
+      <c r="B95">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -1674,14 +1762,15 @@
       <c r="A96">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
-        <v>4</v>
+      <c r="B96">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
       <c r="C96">
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
